--- a/Trabajo_2/numeric.xlsx
+++ b/Trabajo_2/numeric.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d9294d159956677/Documentos/GitHub/Trabajos_GGE/Trabajo_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA173A52-8C83-4947-B0E1-610572550130}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{CA173A52-8C83-4947-B0E1-610572550130}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2E7209BE-A1AB-4085-990E-998910128DCE}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KyH" sheetId="2" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -438,12 +438,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -457,21 +457,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="C2">
-        <v>41200</v>
+        <v>0.999</v>
       </c>
       <c r="D2">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -485,7 +485,7 @@
         <v>5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -499,21 +499,21 @@
         <v>4.0099999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>56900</v>
+        <v>1.02</v>
       </c>
       <c r="D5">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.37E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -527,21 +527,21 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>11.9</v>
       </c>
       <c r="C7">
-        <v>52700</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="D7">
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -555,7 +555,7 @@
         <v>9.3799999999999994E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -578,13 +578,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED14AB5E-BF22-4D58-A09B-C2A4978376AE}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -598,7 +598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -626,7 +626,7 @@
         <v>5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -640,7 +640,7 @@
         <v>4.0099999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -654,7 +654,7 @@
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -682,7 +682,7 @@
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -696,7 +696,7 @@
         <v>9.3299999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -719,13 +719,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C7E771-0E75-48A1-B6A2-559D4AC776DB}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
         <v>1.6100000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -758,7 +758,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -769,7 +769,7 @@
         <v>4.0400000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -791,7 +791,7 @@
         <v>1.17E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -802,7 +802,7 @@
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -813,7 +813,7 @@
         <v>8.8699999999999994E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
